--- a/rj_templates.xlsx
+++ b/rj_templates.xlsx
@@ -919,7 +919,7 @@
     <t>{"label": "冶游史", "type": "RADIO", "value": ["0"], "options": [{"label": "无", "display": "无冶游史", "props": {"color": "green"}, "value": "0", "addition": null}, {"label": "有", "display": "有冶游史", "props": {"color": "red"}, "value": "1", "addition": null}]}</t>
   </si>
   <si>
-    <t>{"label": "腰痹", "type": "RADIO", "value": ["1"], "options": [{"label": "肾虚证", "display": "腰痹（肾虚证）", "props": {"color": "orange"}, "value": "1", "addition": null}, {"label": "寒湿证", "display": "腰痹（寒湿证）", "props": {"color": "orange"}, "value": "2", "addition": null}, {"label": "瘀血证", "display": "腰痹（瘀血证）", "props": {"color": "orange"}, "value": "3", "addition": null}]}</t>
+    <t>{"label": "腰痹", "type": "RADIO", "value": ["1"], "options": [{"label": "瘀血证", "display": "腰痹（瘀血证）", "props": {"color": "orange"}, "value": "1", "addition": null}, {"label": "肾虚证", "display": "腰痹（肾虚证）", "props": {"color": "orange"}, "value": "2", "addition": null}, {"label": "寒湿证", "display": "腰痹（寒湿证）", "props": {"color": "orange"}, "value": "3", "addition": null}]}</t>
   </si>
   <si>
     <t>{"label": "婚", "type": "RADIO", "value": ["0"], "options": [{"label": "未", "display": "未婚", "props": {"color": "orange"}, "addition": null, "value": "0"}, {"label": "已", "display": "已婚：{已婚情况}", "props": {"color": "orange"}, "addition": [{"label": "已婚情况", "type": "RADIO", "value": ["0"], "options": [{"label": "配偶健", "display": "配偶健", "props": {"color": "green"}, "value": "0", "addition": null}, {"label": "配偶亡", "display": "配偶亡", "props": {"color": "red"}, "value": "1", "addition": null}, {"label": "配偶在不健", "display": "配偶在不健", "props": {"color": "red"}, "value": "2", "addition": null}]}], "value": "1"}]}</t>
@@ -1087,7 +1087,7 @@
     <t>{"label": "压痛反跳痛", "type": "RADIO", "value": ["0"], "options": [{"label": "无", "display": "无压痛反跳痛", "props": {"color": "green"}, "value": "0", "addition": null}, {"label": "有", "display": "有压痛反跳痛", "props": {"color": "red"}, "value": "1", "addition": null}]}</t>
   </si>
   <si>
-    <t>{"label": "颈痹", "type": "RADIO", "value": ["1"], "options": [{"label": "气滞血瘀证", "display": "颈痹（气滞血瘀证）", "props": {"color": "orange"}, "value": "1", "addition": null}, {"label": "湿热中阻证", "display": "颈痹（湿热中阻证）", "props": {"color": "orange"}, "value": "2", "addition": null}, {"label": "肝肾亏虚证", "display": "颈痹（肝肾亏虚证）", "props": {"color": "orange"}, "value": "3", "addition": null}, {"label": "感受外寒证", "display": "颈痹（感受外寒证）", "props": {"color": "orange"}, "value": "4", "addition": null}]}</t>
+    <t>{"label": "颈痹", "type": "RADIO", "value": ["1"], "options": [{"label": "气滞血瘀证", "display": "颈痹（气滞血瘀证）", "props": {"color": "orange"}, "value": "1", "addition": null}, {"label": "湿热中阻证", "display": "颈痹（湿热中阻证）", "props": {"color": "orange"}, "value": "2", "addition": null}, {"label": "感受外寒证", "display": "颈痹（感受外寒证）", "props": {"color": "orange"}, "value": "3", "addition": null}, {"label": "肝肾亏虚证", "display": "颈痹（肝肾亏虚证）", "props": {"color": "orange"}, "value": "4", "addition": null}]}</t>
   </si>
   <si>
     <t>{"label": "颈部肌肉", "type": "RADIO", "value": ["0"], "options": [{"label": "正常", "display": "颈部肌肉正常", "props": {"color": "green"}, "value": "0", "addition": null}, {"label": "紧张", "display": "颈部肌肉紧张", "props": {"color": "red"}, "value": "1", "addition": null}]}</t>
@@ -1417,7 +1417,7 @@
     <t>{"label": "左", "type": "TEXT", "value": "", "freetextPrefix": "左：", "freetextPostfix": "mmHg", "placeholder": ""}</t>
   </si>
   <si>
-    <t>{"label": "腰痹", "type": "RADIO", "value": ["1"], "options": [{"label": "气滞血瘀证", "display": "腰痹（气滞血瘀证）", "props": {"color": "orange"}, "value": "1", "addition": null}, {"label": "湿热犯腰证", "display": "腰痹（湿热犯腰证）", "props": {"color": "orange"}, "value": "2", "addition": null}, {"label": "寒湿犯腰证", "display": "腰痹（寒湿犯腰证）", "props": {"color": "orange"}, "value": "3", "addition": null}, {"label": "肝肾亏虚证", "display": "腰痹（肝肾亏虚证）", "props": {"color": "orange"}, "value": "4", "addition": null}]}</t>
+    <t>{"label": "腰痹", "type": "RADIO", "value": ["1"], "options": [{"label": "湿热犯腰证", "display": "腰痹（湿热犯腰证）", "props": {"color": "orange"}, "value": "1", "addition": null}, {"label": "气滞血瘀证", "display": "腰痹（气滞血瘀证）", "props": {"color": "orange"}, "value": "2", "addition": null}, {"label": "寒湿犯腰证", "display": "腰痹（寒湿犯腰证）", "props": {"color": "orange"}, "value": "3", "addition": null}, {"label": "肝肾亏虚证", "display": "腰痹（肝肾亏虚证）", "props": {"color": "orange"}, "value": "4", "addition": null}]}</t>
   </si>
   <si>
     <t>{"label": "腰部弯腰受限", "type": "RADIO", "value": ["0"], "options": [{"label": "不明显", "display": "腰部弯腰不明显受限", "props": {"color": "green"}, "value": "0", "addition": null}, {"label": "明显", "display": "腰部弯腰明显受限", "props": {"color": "red"}, "value": "1", "addition": null}]}</t>
@@ -1495,7 +1495,7 @@
     <t>无冶游史</t>
   </si>
   <si>
-    <t>腰痹（肾虚证）</t>
+    <t>腰痹（瘀血证）</t>
   </si>
   <si>
     <t>已婚，</t>
@@ -1996,7 +1996,7 @@
     <t>左：输入mmHg</t>
   </si>
   <si>
-    <t>腰痹（气滞血瘀证）</t>
+    <t>腰痹（湿热犯腰证）</t>
   </si>
   <si>
     <t>腰部弯腰明显受限</t>
